--- a/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-allergyintolerance.xlsx
+++ b/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-allergyintolerance.xlsx
@@ -678,7 +678,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_AllergyIntoleranceCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_AllergyIntolerance_VS</t>
   </si>
   <si>
     <t>substance/product:@@ -1425,7 +1425,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.94921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
